--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf9-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf9-Fgfr1.xlsx
@@ -537,16 +537,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.29025</v>
+        <v>0.579684</v>
       </c>
       <c r="H2">
-        <v>6.870749999999999</v>
+        <v>1.739052</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N2">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q2">
-        <v>13.410210757</v>
+        <v>6.079538747295999</v>
       </c>
       <c r="R2">
-        <v>120.691896813</v>
+        <v>54.715848725664</v>
       </c>
       <c r="S2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="T2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.29025</v>
+        <v>0.579684</v>
       </c>
       <c r="H3">
-        <v>6.870749999999999</v>
+        <v>1.739052</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>188.990975</v>
       </c>
       <c r="O3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q3">
-        <v>144.2788601645833</v>
+        <v>36.5183481173</v>
       </c>
       <c r="R3">
-        <v>1298.50974148125</v>
+        <v>328.6651330557</v>
       </c>
       <c r="S3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="T3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.29025</v>
+        <v>0.579684</v>
       </c>
       <c r="H4">
-        <v>6.870749999999999</v>
+        <v>1.739052</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N4">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q4">
-        <v>0.6047321149166667</v>
+        <v>0.192617013064</v>
       </c>
       <c r="R4">
-        <v>5.442589034249999</v>
+        <v>1.733553117576</v>
       </c>
       <c r="S4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="T4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.29025</v>
+        <v>0.579684</v>
       </c>
       <c r="H5">
-        <v>6.870749999999999</v>
+        <v>1.739052</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N5">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q5">
-        <v>100.45955119275</v>
+        <v>5.944418464684</v>
       </c>
       <c r="R5">
-        <v>904.1359607347498</v>
+        <v>53.499766182156</v>
       </c>
       <c r="S5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="T5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.29025</v>
+        <v>0.579684</v>
       </c>
       <c r="H6">
-        <v>6.870749999999999</v>
+        <v>1.739052</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N6">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O6">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P6">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q6">
-        <v>1.74776535325</v>
+        <v>0.438946192972</v>
       </c>
       <c r="R6">
-        <v>15.72988817925</v>
+        <v>3.950515736748</v>
       </c>
       <c r="S6">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="T6">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.29025</v>
+        <v>0.579684</v>
       </c>
       <c r="H7">
-        <v>6.870749999999999</v>
+        <v>1.739052</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N7">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q7">
-        <v>2.808237369333333</v>
+        <v>0.573289892252</v>
       </c>
       <c r="R7">
-        <v>25.274136324</v>
+        <v>5.159609030267999</v>
       </c>
       <c r="S7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="T7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
     </row>
   </sheetData>
